--- a/系统相关导入导出模板/企业汇款模版.xlsx
+++ b/系统相关导入导出模板/企业汇款模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12380"/>
+    <workbookView windowHeight="24320"/>
   </bookViews>
   <sheets>
     <sheet name="企业汇款模板" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -133,16 +133,19 @@
   <si>
     <t>君合基金会6</t>
   </si>
+  <si>
+    <t>君合基金会7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -163,24 +166,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,14 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -207,21 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,8 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -254,29 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,7 +258,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,25 +342,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,43 +432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,25 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,49 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,32 +563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,16 +585,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,152 +624,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,7 +939,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -970,7 +973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,7 +1041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,7 +1075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1106,7 +1109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,7 +1143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,7 +1177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,7 +1211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,7 +1245,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1310,7 +1313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1344,7 +1347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1378,7 +1381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1412,7 +1415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,7 +1449,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,7 +1483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,7 +1517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,7 +1551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1582,7 +1585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,7 +1619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1650,7 +1653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,7 +1687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,7 +1721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,7 +1755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,7 +1789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1820,7 +1823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1854,7 +1857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,7 +1891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,7 +1925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,7 +1959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,7 +1993,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,7 +2027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2092,7 +2095,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,7 +2129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2160,7 +2163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,7 +2197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,7 +2231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2262,7 +2265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2296,7 +2299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,7 +2333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,7 +2367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,7 +2401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,7 +2435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2500,7 +2503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2534,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2568,7 +2571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2602,7 +2605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,7 +2639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2670,7 +2673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2704,7 +2707,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2738,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2772,7 +2775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2806,7 +2809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2840,7 +2843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2874,7 +2877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2908,7 +2911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,7 +2945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,7 +2979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3010,7 +3013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,7 +3047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3078,7 +3081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3112,7 +3115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3146,7 +3149,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3180,7 +3183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,7 +3217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3248,7 +3251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3282,7 +3285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3316,7 +3319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3350,7 +3353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3384,7 +3387,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3418,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,7 +3455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3486,7 +3489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3520,7 +3523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3554,7 +3557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3588,7 +3591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3622,7 +3625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3656,7 +3659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3690,7 +3693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3724,7 +3727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3758,7 +3761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3792,7 +3795,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3826,7 +3829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2702560" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3860,7 +3863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2701290" y="152400"/>
-          <a:ext cx="75565" cy="222885"/>
+          <a:ext cx="75565" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4132,17 +4135,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
@@ -4152,7 +4155,7 @@
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" ht="12" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>44409</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -4188,7 +4191,7 @@
         <v>44439</v>
       </c>
       <c r="B3" s="2">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
@@ -4202,12 +4205,26 @@
         <v>44442</v>
       </c>
       <c r="B4" s="2">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-5067</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
